--- a/1лаба/hee_quan.xlsx
+++ b/1лаба/hee_quan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD14DB0-581B-4544-A281-2B6781971395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E60117C-1DC0-4607-ABB6-92F433B57044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/1лаба/hee_quan.xlsx
+++ b/1лаба/hee_quan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E60117C-1DC0-4607-ABB6-92F433B57044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AE28A0-2AD7-4E17-A25E-1F534791CE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
